--- a/sputnik/personal/uch/uch194.xlsx
+++ b/sputnik/personal/uch/uch194.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -37,13 +34,19 @@
   </si>
   <si>
     <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №194</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,32 +120,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -178,15 +155,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,10 +259,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +293,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -491,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -501,7 +478,7 @@
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -510,12 +487,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -523,94 +502,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="13">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>9917.6</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="13">
         <v>43337</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="13">
         <v>43358</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
         <v>4917.6000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="14">
         <v>43586</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>9776.7999999999993</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" s="14">
         <v>43667</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7">
         <v>9776.7999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -618,12 +594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -632,12 +608,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch194.xlsx
+++ b/sputnik/personal/uch/uch194.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,13 +40,16 @@
   </si>
   <si>
     <t>Наименование / садовый участок №194</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -167,6 +170,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -227,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,9 +263,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,6 +298,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -468,17 +474,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -487,8 +493,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -502,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>43221</v>
       </c>
@@ -514,7 +520,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>43337</v>
       </c>
@@ -526,7 +532,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>43358</v>
       </c>
@@ -538,7 +544,7 @@
         <v>4917.6000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43586</v>
       </c>
@@ -550,7 +556,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43667</v>
       </c>
@@ -562,25 +568,31 @@
         <v>9776.7999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>11000</v>
+      </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -594,12 +606,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,12 +620,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch194.xlsx
+++ b/sputnik/personal/uch/uch194.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -481,7 +481,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,16 +581,28 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="15">
+        <v>44049</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <v>4000</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="15">
+        <v>44067</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8">
+        <v>2000</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>

--- a/sputnik/personal/uch/uch194.xlsx
+++ b/sputnik/personal/uch/uch194.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -481,7 +481,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,10 +605,16 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="15">
+        <v>44138</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch194.xlsx
+++ b/sputnik/personal/uch/uch194.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -171,6 +174,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -478,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A11" sqref="A11:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,13 +614,67 @@
       <c r="A11" s="15">
         <v>44138</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8">
         <v>2000</v>
       </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11730.4</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch194.xlsx
+++ b/sputnik/personal/uch/uch194.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -487,7 +487,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -635,10 +635,16 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="15">
+        <v>44376</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>11730.4</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
